--- a/03DB設計書_🎈ふわふわロケッつ🚀.xlsx
+++ b/03DB設計書_🎈ふわふわロケッつ🚀.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://asojukustudent-my.sharepoint.com/personal/2201204_s_asojuku_ac_jp/Documents/Microsoft Teams チャット ファイル/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\宮本悠\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="402" documentId="13_ncr:1_{A5F8048E-CF1E-46C8-AF4B-168C4BC06BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFDDB22F-22F7-448B-84E8-B16B6FEDEF71}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B6DE9C-7F45-4E15-80CE-3516434B7202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="10800" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2960" yWindow="2960" windowWidth="14400" windowHeight="7810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="E-R 図" sheetId="2" r:id="rId1"/>
@@ -691,7 +691,8 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>o</t>
+    <t>school_category</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1047,7 +1048,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1131,6 +1132,21 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -1155,6 +1171,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1170,9 +1189,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1187,24 +1203,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3368,10 +3366,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -3637,8 +3631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="45" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="T54" sqref="T54"/>
+    <sheetView tabSelected="1" zoomScale="45" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.2"/>
@@ -3650,30 +3644,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="13"/>
@@ -3698,19 +3692,19 @@
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="30" t="s">
+      <c r="C5" s="36"/>
+      <c r="D5" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="32"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="37"/>
       <c r="L5" s="19" t="s">
         <v>5</v>
       </c>
@@ -3732,8 +3726,8 @@
       <c r="F6" s="21"/>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="36"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="41"/>
       <c r="L6" s="19" t="s">
         <v>6</v>
       </c>
@@ -3755,8 +3749,8 @@
       <c r="F7" s="21"/>
       <c r="G7" s="21"/>
       <c r="H7" s="21"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="36"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="41"/>
     </row>
     <row r="8" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="20">
@@ -3775,8 +3769,8 @@
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
       <c r="H8" s="21"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="36"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="41"/>
     </row>
     <row r="9" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="20">
@@ -3795,8 +3789,8 @@
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="36"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="41"/>
     </row>
     <row r="10" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="20">
@@ -3815,8 +3809,8 @@
       <c r="F10" s="21"/>
       <c r="G10" s="21"/>
       <c r="H10" s="21"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="36"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="41"/>
     </row>
     <row r="11" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="20">
@@ -3855,8 +3849,8 @@
       <c r="F12" s="21"/>
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="36"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="41"/>
     </row>
     <row r="13" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="20">
@@ -3895,8 +3889,8 @@
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="34"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="39"/>
     </row>
     <row r="15" spans="1:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5"/>
@@ -4397,8 +4391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EAAF1A2-7339-44A3-8CBE-6844A4A25C5A}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.2"/>
@@ -4451,28 +4445,28 @@
       <c r="J3" s="2"/>
     </row>
     <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39" t="s">
+      <c r="C5" s="44"/>
+      <c r="D5" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="41"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="47"/>
     </row>
     <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="45" t="s">
+      <c r="C6" s="49"/>
+      <c r="D6" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="52"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
@@ -4526,22 +4520,22 @@
       <c r="D10" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="48" t="s">
+      <c r="E10" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="48" t="s">
+      <c r="F10" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="48" t="s">
+      <c r="G10" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="48" t="s">
+      <c r="H10" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="48" t="s">
+      <c r="I10" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="J10" s="48" t="s">
+      <c r="J10" s="29" t="s">
         <v>55</v>
       </c>
     </row>
@@ -4558,22 +4552,22 @@
       <c r="D11" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="48">
+      <c r="E11" s="29">
         <v>100</v>
       </c>
-      <c r="F11" s="48" t="s">
+      <c r="F11" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="48" t="s">
+      <c r="G11" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="H11" s="48" t="s">
+      <c r="H11" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="48" t="s">
+      <c r="I11" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="J11" s="48" t="s">
+      <c r="J11" s="29" t="s">
         <v>55</v>
       </c>
       <c r="K11" s="2"/>
@@ -4614,30 +4608,20 @@
       <c r="M13" s="11"/>
     </row>
     <row r="14" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="49"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
       <c r="K14" s="2"/>
       <c r="M14" s="11"/>
     </row>
     <row r="15" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="51"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
       <c r="K15" s="2"/>
       <c r="L15" s="12" t="s">
         <v>23</v>
@@ -4645,240 +4629,79 @@
       <c r="M15" s="11"/>
     </row>
     <row r="16" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="51"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
       <c r="K16" s="2"/>
       <c r="M16" s="11"/>
     </row>
-    <row r="17" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="51"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
+    <row r="17" spans="11:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K17" s="2"/>
       <c r="M17" s="11"/>
     </row>
-    <row r="18" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="51"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
+    <row r="18" spans="11:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="11"/>
     </row>
-    <row r="19" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="51"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
+    <row r="19" spans="11:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="11"/>
     </row>
-    <row r="20" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="51"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
+    <row r="20" spans="11:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="11"/>
     </row>
-    <row r="21" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="51"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
+    <row r="21" spans="11:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="11"/>
     </row>
-    <row r="22" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="51"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
+    <row r="22" spans="11:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="11"/>
     </row>
-    <row r="23" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="51"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
+    <row r="23" spans="11:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="11"/>
     </row>
-    <row r="24" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="51"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
+    <row r="24" spans="11:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="11"/>
     </row>
-    <row r="25" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="51"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
+    <row r="25" spans="11:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="11"/>
     </row>
-    <row r="26" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="51"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
+    <row r="26" spans="11:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="11"/>
     </row>
-    <row r="27" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="51"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
+    <row r="27" spans="11:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="11"/>
     </row>
-    <row r="28" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="51"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
+    <row r="28" spans="11:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="11"/>
     </row>
-    <row r="29" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="51"/>
-      <c r="B29" s="51"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="51"/>
+    <row r="29" spans="11:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="11"/>
     </row>
-    <row r="30" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="51"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="51"/>
+    <row r="30" spans="11:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="11"/>
     </row>
-    <row r="31" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="51"/>
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
-    </row>
+    <row r="31" spans="11:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:J2"/>
@@ -4952,28 +4775,28 @@
       <c r="J3" s="2"/>
     </row>
     <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39" t="s">
+      <c r="C5" s="44"/>
+      <c r="D5" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="41"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="47"/>
     </row>
     <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="45" t="s">
+      <c r="C6" s="49"/>
+      <c r="D6" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="52"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
@@ -5030,19 +4853,19 @@
       <c r="E10" s="10">
         <v>7</v>
       </c>
-      <c r="F10" s="48" t="s">
+      <c r="F10" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="J10" s="48" t="s">
+      <c r="G10" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="29" t="s">
         <v>50</v>
       </c>
     </row>
@@ -5062,19 +4885,19 @@
       <c r="E11" s="10">
         <v>50</v>
       </c>
-      <c r="F11" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="48" t="s">
+      <c r="F11" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="I11" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="J11" s="48" t="s">
+      <c r="I11" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" s="29" t="s">
         <v>50</v>
       </c>
       <c r="K11" s="2"/>
@@ -5099,19 +4922,19 @@
       <c r="E12" s="10">
         <v>30</v>
       </c>
-      <c r="F12" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" s="48" t="s">
+      <c r="F12" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="I12" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="J12" s="48" t="s">
+      <c r="I12" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" s="29" t="s">
         <v>50</v>
       </c>
       <c r="K12" s="2"/>
@@ -5130,22 +4953,22 @@
       <c r="D13" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="48" t="s">
+      <c r="E13" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="I13" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="J13" s="48" t="s">
+      <c r="H13" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" s="29" t="s">
         <v>50</v>
       </c>
       <c r="K13" s="2"/>
@@ -5170,19 +4993,19 @@
       <c r="E14" s="10">
         <v>1000</v>
       </c>
-      <c r="F14" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="H14" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="I14" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="J14" s="48" t="s">
+      <c r="F14" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" s="29" t="s">
         <v>50</v>
       </c>
       <c r="K14" s="2"/>
@@ -5194,11 +5017,11 @@
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
       <c r="K15" s="2"/>
       <c r="L15" s="12" t="s">
         <v>23</v>
@@ -5211,234 +5034,164 @@
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
       <c r="K16" s="2"/>
       <c r="M16" s="11"/>
     </row>
     <row r="17" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="49"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
       <c r="K17" s="2"/>
       <c r="M17" s="11"/>
     </row>
     <row r="18" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="51"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="11"/>
     </row>
     <row r="19" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="51"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="11"/>
     </row>
     <row r="20" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="51"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="11"/>
     </row>
     <row r="21" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="51"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="52"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="11"/>
     </row>
     <row r="22" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="51"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="52"/>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="11"/>
     </row>
     <row r="23" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="51"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="52"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="11"/>
     </row>
     <row r="24" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="51"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="52"/>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="11"/>
     </row>
     <row r="25" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="51"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="11"/>
     </row>
     <row r="26" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="51"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="52"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="11"/>
     </row>
     <row r="27" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="51"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="11"/>
     </row>
     <row r="28" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="51"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="11"/>
     </row>
     <row r="29" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="51"/>
-      <c r="B29" s="51"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="52"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="11"/>
     </row>
     <row r="30" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="51"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="11"/>
     </row>
     <row r="31" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="51"/>
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="52"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5513,28 +5266,28 @@
       <c r="J3" s="2"/>
     </row>
     <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39" t="s">
+      <c r="C5" s="44"/>
+      <c r="D5" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="41"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="47"/>
     </row>
     <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="45" t="s">
+      <c r="C6" s="49"/>
+      <c r="D6" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="52"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
@@ -5579,31 +5332,31 @@
       <c r="A10" s="10">
         <v>1</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="33" t="s">
         <v>70</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="48" t="s">
+      <c r="E10" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="48" t="s">
+      <c r="F10" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="G10" s="48" t="s">
+      <c r="G10" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="H10" s="48" t="s">
+      <c r="H10" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="I10" s="48" t="s">
+      <c r="I10" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="J10" s="48" t="s">
+      <c r="J10" s="29" t="s">
         <v>76</v>
       </c>
     </row>
@@ -5611,31 +5364,31 @@
       <c r="A11" s="10">
         <v>2</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="33" t="s">
         <v>71</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="48">
+      <c r="E11" s="29">
         <v>500</v>
       </c>
-      <c r="F11" s="48" t="s">
+      <c r="F11" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="G11" s="48" t="s">
+      <c r="G11" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="H11" s="48" t="s">
+      <c r="H11" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="I11" s="48" t="s">
+      <c r="I11" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="J11" s="48" t="s">
+      <c r="J11" s="29" t="s">
         <v>76</v>
       </c>
       <c r="K11" s="2"/>
@@ -5648,31 +5401,31 @@
       <c r="A12" s="10">
         <v>3</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="53" t="s">
+      <c r="C12" s="33" t="s">
         <v>46</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="48" t="s">
+      <c r="E12" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="48" t="s">
+      <c r="F12" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="G12" s="48" t="s">
+      <c r="G12" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="H12" s="48" t="s">
+      <c r="H12" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="I12" s="48" t="s">
+      <c r="I12" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="J12" s="48" t="s">
+      <c r="J12" s="29" t="s">
         <v>76</v>
       </c>
       <c r="K12" s="2"/>
@@ -5682,31 +5435,31 @@
       <c r="A13" s="10">
         <v>4</v>
       </c>
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="33" t="s">
         <v>72</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E13" s="48" t="s">
+      <c r="E13" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="F13" s="48" t="s">
+      <c r="F13" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="G13" s="48" t="s">
+      <c r="G13" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="H13" s="48" t="s">
+      <c r="H13" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="I13" s="48" t="s">
+      <c r="I13" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="J13" s="48" t="s">
+      <c r="J13" s="29" t="s">
         <v>76</v>
       </c>
       <c r="K13" s="2"/>
@@ -5719,31 +5472,31 @@
       <c r="A14" s="10">
         <v>5</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="53" t="s">
+      <c r="C14" s="33" t="s">
         <v>73</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="48" t="s">
+      <c r="E14" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="F14" s="48" t="s">
+      <c r="F14" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="G14" s="48" t="s">
+      <c r="G14" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="H14" s="48" t="s">
+      <c r="H14" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="I14" s="48" t="s">
+      <c r="I14" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="J14" s="48" t="s">
+      <c r="J14" s="29" t="s">
         <v>76</v>
       </c>
       <c r="K14" s="2"/>
@@ -5754,12 +5507,12 @@
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
       <c r="K15" s="2"/>
       <c r="L15" s="12" t="s">
         <v>23</v>
@@ -5771,236 +5524,107 @@
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
       <c r="K16" s="2"/>
       <c r="M16" s="11"/>
     </row>
     <row r="17" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="49"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
       <c r="K17" s="2"/>
       <c r="M17" s="11"/>
     </row>
     <row r="18" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="51"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="11"/>
     </row>
     <row r="19" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="51"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="11"/>
     </row>
     <row r="20" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="51"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="11"/>
     </row>
     <row r="21" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="51"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="11"/>
     </row>
     <row r="22" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="51"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="11"/>
     </row>
     <row r="23" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="51"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="11"/>
     </row>
     <row r="24" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="51"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="11"/>
     </row>
     <row r="25" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="51"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="11"/>
     </row>
     <row r="26" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="51"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="11"/>
     </row>
     <row r="27" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="51"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="11"/>
     </row>
     <row r="28" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="51"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="11"/>
     </row>
     <row r="29" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="51"/>
-      <c r="B29" s="51"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="51"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="11"/>
     </row>
     <row r="30" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="51"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="51"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="11"/>
     </row>
-    <row r="31" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="51"/>
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
-    </row>
+    <row r="31" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B5:C5"/>
@@ -6073,28 +5697,28 @@
       <c r="J3" s="2"/>
     </row>
     <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39" t="s">
+      <c r="C5" s="44"/>
+      <c r="D5" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="41"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="47"/>
     </row>
     <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="45" t="s">
+      <c r="C6" s="49"/>
+      <c r="D6" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="52"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
@@ -6148,22 +5772,22 @@
       <c r="D10" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="48" t="s">
+      <c r="E10" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="J10" s="48" t="s">
+      <c r="G10" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="29" t="s">
         <v>50</v>
       </c>
     </row>
@@ -6180,22 +5804,22 @@
       <c r="D11" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="48">
+      <c r="E11" s="29">
         <v>500</v>
       </c>
-      <c r="F11" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="48" t="s">
+      <c r="F11" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="I11" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="J11" s="48" t="s">
+      <c r="I11" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" s="29" t="s">
         <v>50</v>
       </c>
       <c r="K11" s="2"/>
@@ -6217,22 +5841,22 @@
       <c r="D12" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="48" t="s">
+      <c r="E12" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="I12" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="J12" s="48" t="s">
+      <c r="H12" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" s="29" t="s">
         <v>50</v>
       </c>
       <c r="K12" s="2"/>
@@ -6251,22 +5875,22 @@
       <c r="D13" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E13" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="H13" s="48" t="s">
+      <c r="E13" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="I13" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="J13" s="48" t="s">
+      <c r="I13" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" s="29" t="s">
         <v>50</v>
       </c>
       <c r="K13" s="2"/>
@@ -6288,22 +5912,22 @@
       <c r="D14" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14" s="48" t="s">
+      <c r="E14" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="I14" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="J14" s="48" t="s">
+      <c r="H14" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" s="29" t="s">
         <v>50</v>
       </c>
       <c r="K14" s="2"/>
@@ -6313,13 +5937,13 @@
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
       <c r="K15" s="2"/>
       <c r="L15" s="12" t="s">
         <v>23</v>
@@ -6330,237 +5954,117 @@
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
       <c r="K16" s="2"/>
       <c r="M16" s="11"/>
     </row>
     <row r="17" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="49"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
       <c r="K17" s="2"/>
       <c r="M17" s="11"/>
     </row>
     <row r="18" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="51"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="11"/>
     </row>
     <row r="19" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="51"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="11"/>
     </row>
     <row r="20" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="51"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="11"/>
     </row>
     <row r="21" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="51"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="11"/>
     </row>
     <row r="22" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="51"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="11"/>
     </row>
     <row r="23" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="51"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="11"/>
     </row>
     <row r="24" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="51"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="11"/>
     </row>
     <row r="25" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="51"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="11"/>
     </row>
     <row r="26" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="51"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="11"/>
     </row>
     <row r="27" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="51"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="11"/>
     </row>
     <row r="28" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="51"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="11"/>
     </row>
     <row r="29" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="51"/>
-      <c r="B29" s="51"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="51"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="11"/>
     </row>
     <row r="30" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="51"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="51"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="11"/>
     </row>
-    <row r="31" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="51"/>
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
-    </row>
+    <row r="31" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:J2"/>
@@ -6633,28 +6137,28 @@
       <c r="J3" s="2"/>
     </row>
     <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39" t="s">
+      <c r="C5" s="44"/>
+      <c r="D5" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="41"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="47"/>
     </row>
     <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="45" t="s">
+      <c r="C6" s="49"/>
+      <c r="D6" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="52"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
@@ -6708,22 +6212,22 @@
       <c r="D10" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="48" t="s">
+      <c r="E10" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="J10" s="48" t="s">
+      <c r="G10" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="29" t="s">
         <v>50</v>
       </c>
     </row>
@@ -6740,22 +6244,22 @@
       <c r="D11" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="E11" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="48" t="s">
+      <c r="E11" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="I11" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="J11" s="48" t="s">
+      <c r="I11" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" s="29" t="s">
         <v>50</v>
       </c>
       <c r="K11" s="2"/>
@@ -6777,22 +6281,22 @@
       <c r="D12" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" s="48" t="s">
+      <c r="E12" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="I12" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="J12" s="48" t="s">
+      <c r="I12" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" s="29" t="s">
         <v>50</v>
       </c>
       <c r="K12" s="2"/>
@@ -6811,22 +6315,22 @@
       <c r="D13" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="48" t="s">
+      <c r="E13" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="I13" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="J13" s="48" t="s">
+      <c r="H13" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" s="29" t="s">
         <v>50</v>
       </c>
       <c r="K13" s="2"/>
@@ -6848,22 +6352,22 @@
       <c r="D14" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14" s="48" t="s">
+      <c r="E14" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="I14" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="J14" s="48" t="s">
+      <c r="H14" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" s="29" t="s">
         <v>50</v>
       </c>
       <c r="K14" s="2"/>
@@ -6882,22 +6386,22 @@
       <c r="D15" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="48" t="s">
+      <c r="E15" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="H15" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="J15" s="48" t="s">
+      <c r="H15" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" s="29" t="s">
         <v>50</v>
       </c>
       <c r="K15" s="2"/>
@@ -6911,12 +6415,12 @@
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
       <c r="K16" s="2"/>
       <c r="M16" s="11"/>
     </row>
@@ -6925,222 +6429,91 @@
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
       <c r="K17" s="2"/>
       <c r="M17" s="11"/>
     </row>
     <row r="18" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="49"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="11"/>
     </row>
     <row r="19" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="51"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="11"/>
     </row>
     <row r="20" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="51"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="11"/>
     </row>
     <row r="21" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="51"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="11"/>
     </row>
     <row r="22" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="51"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="11"/>
     </row>
     <row r="23" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="51"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="11"/>
     </row>
     <row r="24" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="51"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="11"/>
     </row>
     <row r="25" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="51"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="11"/>
     </row>
     <row r="26" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="51"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="11"/>
     </row>
     <row r="27" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="51"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="11"/>
     </row>
     <row r="28" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="51"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="11"/>
     </row>
     <row r="29" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="51"/>
-      <c r="B29" s="51"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="51"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="11"/>
     </row>
     <row r="30" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="51"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="51"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="11"/>
     </row>
-    <row r="31" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="51"/>
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
-    </row>
+    <row r="31" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:J2"/>
@@ -7213,28 +6586,28 @@
       <c r="J3" s="2"/>
     </row>
     <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39" t="s">
+      <c r="C5" s="44"/>
+      <c r="D5" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="41"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="47"/>
     </row>
     <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="45" t="s">
+      <c r="C6" s="49"/>
+      <c r="D6" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="52"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
@@ -7288,22 +6661,22 @@
       <c r="D10" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="48" t="s">
+      <c r="E10" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="J10" s="48" t="s">
+      <c r="G10" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="29" t="s">
         <v>50</v>
       </c>
     </row>
@@ -7320,22 +6693,22 @@
       <c r="D11" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="E11" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="48" t="s">
+      <c r="E11" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="I11" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="J11" s="48" t="s">
+      <c r="I11" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" s="29" t="s">
         <v>50</v>
       </c>
       <c r="K11" s="2"/>
@@ -7357,22 +6730,22 @@
       <c r="D12" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" s="48" t="s">
+      <c r="E12" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="I12" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="J12" s="48" t="s">
+      <c r="I12" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" s="29" t="s">
         <v>50</v>
       </c>
       <c r="K12" s="2"/>
@@ -7391,22 +6764,22 @@
       <c r="D13" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="48" t="s">
+      <c r="E13" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="I13" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="J13" s="48" t="s">
+      <c r="H13" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" s="29" t="s">
         <v>50</v>
       </c>
       <c r="K13" s="2"/>
@@ -7428,22 +6801,22 @@
       <c r="D14" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14" s="48" t="s">
+      <c r="E14" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="I14" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="J14" s="48" t="s">
+      <c r="H14" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" s="29" t="s">
         <v>50</v>
       </c>
       <c r="K14" s="2"/>
@@ -7462,22 +6835,22 @@
       <c r="D15" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="G15" s="48" t="s">
+      <c r="E15" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="H15" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="J15" s="48" t="s">
+      <c r="H15" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" s="29" t="s">
         <v>50</v>
       </c>
       <c r="K15" s="2"/>
@@ -7491,12 +6864,12 @@
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
       <c r="K16" s="2"/>
       <c r="M16" s="11"/>
     </row>
@@ -7505,12 +6878,12 @@
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
       <c r="K17" s="2"/>
       <c r="M17" s="11"/>
     </row>
@@ -7530,197 +6903,76 @@
       <c r="M18" s="11"/>
     </row>
     <row r="19" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="49"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="11"/>
     </row>
     <row r="20" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="51"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="11"/>
     </row>
     <row r="21" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="51"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="11"/>
     </row>
     <row r="22" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="51"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="11"/>
     </row>
     <row r="23" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="51"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="11"/>
     </row>
     <row r="24" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="51"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="11"/>
     </row>
     <row r="25" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="51"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="11"/>
     </row>
     <row r="26" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="51"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="11"/>
     </row>
     <row r="27" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="51"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="11"/>
     </row>
     <row r="28" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="51"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="11"/>
     </row>
     <row r="29" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="51"/>
-      <c r="B29" s="51"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="51"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="11"/>
     </row>
     <row r="30" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="51"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="51"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="11"/>
     </row>
-    <row r="31" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="51"/>
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
-    </row>
+    <row r="31" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:J2"/>
@@ -7794,28 +7046,28 @@
       <c r="J3" s="2"/>
     </row>
     <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39" t="s">
+      <c r="C5" s="44"/>
+      <c r="D5" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="41"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="47"/>
     </row>
     <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="45" t="s">
+      <c r="C6" s="49"/>
+      <c r="D6" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="52"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
@@ -7869,22 +7121,22 @@
       <c r="D10" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="48" t="s">
+      <c r="E10" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="J10" s="48" t="s">
+      <c r="G10" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="29" t="s">
         <v>50</v>
       </c>
     </row>
@@ -7901,22 +7153,22 @@
       <c r="D11" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="48" t="s">
+      <c r="E11" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="I11" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="J11" s="48" t="s">
+      <c r="I11" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" s="29" t="s">
         <v>50</v>
       </c>
       <c r="K11" s="2"/>
@@ -7938,22 +7190,22 @@
       <c r="D12" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="48" t="s">
+      <c r="E12" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="I12" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="J12" s="48" t="s">
+      <c r="H12" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" s="29" t="s">
         <v>50</v>
       </c>
       <c r="K12" s="2"/>
@@ -7972,22 +7224,22 @@
       <c r="D13" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="48" t="s">
+      <c r="E13" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="I13" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="J13" s="48" t="s">
+      <c r="H13" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" s="29" t="s">
         <v>50</v>
       </c>
       <c r="K13" s="2"/>
@@ -8009,22 +7261,22 @@
       <c r="D14" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14" s="48" t="s">
+      <c r="E14" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="I14" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="J14" s="48" t="s">
+      <c r="H14" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" s="29" t="s">
         <v>50</v>
       </c>
       <c r="K14" s="2"/>
@@ -8035,12 +7287,12 @@
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
       <c r="K15" s="2"/>
       <c r="L15" s="12" t="s">
         <v>23</v>
@@ -8052,12 +7304,12 @@
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
       <c r="K16" s="2"/>
       <c r="M16" s="11"/>
     </row>
@@ -8066,222 +7318,91 @@
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
       <c r="K17" s="2"/>
       <c r="M17" s="11"/>
     </row>
     <row r="18" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="49"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="11"/>
     </row>
     <row r="19" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="51"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="11"/>
     </row>
     <row r="20" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="51"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="11"/>
     </row>
     <row r="21" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="51"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="11"/>
     </row>
     <row r="22" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="51"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="11"/>
     </row>
     <row r="23" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="51"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="11"/>
     </row>
     <row r="24" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="51"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="11"/>
     </row>
     <row r="25" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="51"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="11"/>
     </row>
     <row r="26" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="51"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="11"/>
     </row>
     <row r="27" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="51"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="11"/>
     </row>
     <row r="28" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="51"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="11"/>
     </row>
     <row r="29" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="51"/>
-      <c r="B29" s="51"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="51"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="11"/>
     </row>
     <row r="30" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="51"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="51"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="11"/>
     </row>
-    <row r="31" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="51"/>
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
-    </row>
+    <row r="31" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:J2"/>
@@ -8300,7 +7421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF4569F6-01DD-42E5-B281-F5C17F2D1DB0}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -8354,28 +7475,28 @@
       <c r="J3" s="2"/>
     </row>
     <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39" t="s">
+      <c r="C5" s="44"/>
+      <c r="D5" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="41"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="47"/>
     </row>
     <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="45" t="s">
+      <c r="C6" s="49"/>
+      <c r="D6" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="52"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
@@ -8429,22 +7550,22 @@
       <c r="D10" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="48" t="s">
+      <c r="E10" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="J10" s="48" t="s">
+      <c r="G10" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="29" t="s">
         <v>50</v>
       </c>
     </row>
@@ -8461,22 +7582,22 @@
       <c r="D11" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E11" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="F11" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="G11" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="48" t="s">
+      <c r="E11" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="H11" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="I11" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="J11" s="48" t="s">
+      <c r="I11" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" s="29" t="s">
         <v>50</v>
       </c>
       <c r="K11" s="2"/>
@@ -8498,22 +7619,22 @@
       <c r="D12" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="F12" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="48" t="s">
+      <c r="E12" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="G12" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="H12" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="I12" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="J12" s="48" t="s">
+      <c r="H12" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" s="29" t="s">
         <v>50</v>
       </c>
       <c r="K12" s="2"/>
@@ -8532,22 +7653,22 @@
       <c r="D13" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="48" t="s">
+      <c r="E13" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="I13" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="J13" s="48" t="s">
+      <c r="H13" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="J13" s="29" t="s">
         <v>50</v>
       </c>
       <c r="K13" s="2"/>
@@ -8569,22 +7690,22 @@
       <c r="D14" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14" s="48" t="s">
+      <c r="E14" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="H14" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="I14" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="J14" s="48" t="s">
+      <c r="H14" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" s="29" t="s">
         <v>50</v>
       </c>
       <c r="K14" s="2"/>
@@ -8595,12 +7716,12 @@
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
       <c r="K15" s="2"/>
       <c r="L15" s="12" t="s">
         <v>23</v>
@@ -8612,236 +7733,95 @@
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
       <c r="K16" s="2"/>
       <c r="M16" s="11"/>
     </row>
     <row r="17" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="49"/>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
       <c r="K17" s="2"/>
       <c r="M17" s="11"/>
     </row>
     <row r="18" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="51"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="11"/>
     </row>
     <row r="19" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="51"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="11"/>
     </row>
     <row r="20" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="51"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="11"/>
     </row>
     <row r="21" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="51"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="11"/>
     </row>
     <row r="22" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="51"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="11"/>
     </row>
     <row r="23" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="51"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="11"/>
     </row>
     <row r="24" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="51"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="11"/>
     </row>
     <row r="25" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="51"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="11"/>
     </row>
     <row r="26" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="51"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="11"/>
     </row>
     <row r="27" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="51"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="11"/>
     </row>
     <row r="28" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="51"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="11"/>
     </row>
     <row r="29" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="51"/>
-      <c r="B29" s="51"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="51"/>
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="11"/>
     </row>
     <row r="30" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="51"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="51"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="11"/>
     </row>
-    <row r="31" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="51"/>
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
-    </row>
+    <row r="31" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:J2"/>
@@ -8914,28 +7894,28 @@
       <c r="J3" s="2"/>
     </row>
     <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39" t="s">
+      <c r="C5" s="44"/>
+      <c r="D5" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="41"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="47"/>
     </row>
     <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="45" t="s">
+      <c r="C6" s="49"/>
+      <c r="D6" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="52"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
@@ -8989,22 +7969,22 @@
       <c r="D10" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="48" t="s">
+      <c r="E10" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="48" t="s">
+      <c r="F10" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="48" t="s">
+      <c r="G10" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="48" t="s">
+      <c r="H10" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="48" t="s">
+      <c r="I10" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="J10" s="48" t="s">
+      <c r="J10" s="29" t="s">
         <v>55</v>
       </c>
     </row>
@@ -9021,22 +8001,22 @@
       <c r="D11" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E11" s="48">
+      <c r="E11" s="29">
         <v>100</v>
       </c>
-      <c r="F11" s="48" t="s">
+      <c r="F11" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="G11" s="48" t="s">
+      <c r="G11" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="H11" s="48" t="s">
+      <c r="H11" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="48" t="s">
+      <c r="I11" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="J11" s="48" t="s">
+      <c r="J11" s="29" t="s">
         <v>55</v>
       </c>
       <c r="K11" s="2"/>
@@ -9077,30 +8057,20 @@
       <c r="M13" s="11"/>
     </row>
     <row r="14" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="49"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
+      <c r="A14" s="30"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
       <c r="K14" s="2"/>
       <c r="M14" s="11"/>
     </row>
     <row r="15" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="51"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
       <c r="K15" s="2"/>
       <c r="L15" s="12" t="s">
         <v>23</v>
@@ -9108,240 +8078,79 @@
       <c r="M15" s="11"/>
     </row>
     <row r="16" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="51"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
       <c r="K16" s="2"/>
       <c r="M16" s="11"/>
     </row>
-    <row r="17" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="51"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
+    <row r="17" spans="11:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K17" s="2"/>
       <c r="M17" s="11"/>
     </row>
-    <row r="18" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="51"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
+    <row r="18" spans="11:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="11"/>
     </row>
-    <row r="19" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="51"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
+    <row r="19" spans="11:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="11"/>
     </row>
-    <row r="20" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="51"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
+    <row r="20" spans="11:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="11"/>
     </row>
-    <row r="21" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="51"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
+    <row r="21" spans="11:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="11"/>
     </row>
-    <row r="22" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="51"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="51"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
+    <row r="22" spans="11:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="11"/>
     </row>
-    <row r="23" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="51"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-      <c r="I23" s="51"/>
-      <c r="J23" s="51"/>
+    <row r="23" spans="11:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="11"/>
     </row>
-    <row r="24" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="51"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="51"/>
+    <row r="24" spans="11:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="11"/>
     </row>
-    <row r="25" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="51"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
+    <row r="25" spans="11:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K25" s="2"/>
       <c r="L25" s="2"/>
       <c r="M25" s="11"/>
     </row>
-    <row r="26" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="51"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
+    <row r="26" spans="11:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="11"/>
     </row>
-    <row r="27" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="51"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="51"/>
+    <row r="27" spans="11:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="11"/>
     </row>
-    <row r="28" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="51"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
+    <row r="28" spans="11:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="11"/>
     </row>
-    <row r="29" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="51"/>
-      <c r="B29" s="51"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="51"/>
+    <row r="29" spans="11:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
       <c r="M29" s="11"/>
     </row>
-    <row r="30" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="51"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="51"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="51"/>
+    <row r="30" spans="11:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="11"/>
     </row>
-    <row r="31" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="51"/>
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="51"/>
-      <c r="J31" s="51"/>
-    </row>
+    <row r="31" spans="11:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:J2"/>
@@ -9357,6 +8166,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010042DFD04490200B47A76C1CE793EACE7F" ma:contentTypeVersion="4" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="93aa509de93b1532e534e8248246fb1f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="24288dd6-a10b-4bbd-9709-969a9ca5030f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c622af2228f15a0bb8a44201ba8f9513" ns2:_="">
     <xsd:import namespace="24288dd6-a10b-4bbd-9709-969a9ca5030f"/>
@@ -9500,22 +8324,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4D07CD2-0470-4373-A3B8-40E1902D94E8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="24288dd6-a10b-4bbd-9709-969a9ca5030f"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24B0B34C-6E34-4641-8BFA-94E2A5398F33}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12C083DD-9F0B-462B-B80F-F71F6527A28A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9531,28 +8364,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24B0B34C-6E34-4641-8BFA-94E2A5398F33}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4D07CD2-0470-4373-A3B8-40E1902D94E8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="24288dd6-a10b-4bbd-9709-969a9ca5030f"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/03DB設計書_🎈ふわふわロケッつ🚀.xlsx
+++ b/03DB設計書_🎈ふわふわロケッつ🚀.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\宮本悠\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B6DE9C-7F45-4E15-80CE-3516434B7202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14BA276A-1A49-470C-9A7E-5337D393093E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2960" yWindow="2960" windowWidth="14400" windowHeight="7810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="E-R 図" sheetId="2" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="120">
   <si>
     <t>エンティティ一覧・E-R図</t>
   </si>
@@ -692,6 +692,14 @@
   </si>
   <si>
     <t>school_category</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ポートフォリオ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>portfolio</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3631,7 +3639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="45" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView zoomScale="45" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -4720,8 +4728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA4A8372-B656-4D7C-99FD-544993B1CB03}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="74" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="74" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.2"/>
@@ -5012,16 +5020,36 @@
       <c r="M14" s="11"/>
     </row>
     <row r="15" spans="1:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
+      <c r="A15" s="10">
+        <v>6</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="10">
+        <v>1000</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" s="29" t="s">
+        <v>50</v>
+      </c>
       <c r="K15" s="2"/>
       <c r="L15" s="12" t="s">
         <v>23</v>
@@ -8172,15 +8200,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x01010042DFD04490200B47A76C1CE793EACE7F" ma:contentTypeVersion="4" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="93aa509de93b1532e534e8248246fb1f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="24288dd6-a10b-4bbd-9709-969a9ca5030f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c622af2228f15a0bb8a44201ba8f9513" ns2:_="">
     <xsd:import namespace="24288dd6-a10b-4bbd-9709-969a9ca5030f"/>
@@ -8324,6 +8343,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A4D07CD2-0470-4373-A3B8-40E1902D94E8}">
   <ds:schemaRefs>
@@ -8341,14 +8369,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24B0B34C-6E34-4641-8BFA-94E2A5398F33}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12C083DD-9F0B-462B-B80F-F71F6527A28A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8364,4 +8384,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24B0B34C-6E34-4641-8BFA-94E2A5398F33}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>